--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H2">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I2">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J2">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.97947133333333</v>
+        <v>19.40000333333333</v>
       </c>
       <c r="N2">
-        <v>56.938414</v>
+        <v>58.20001</v>
       </c>
       <c r="O2">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830937</v>
       </c>
       <c r="P2">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830936</v>
       </c>
       <c r="Q2">
-        <v>2135.763211568012</v>
+        <v>1750.851238500161</v>
       </c>
       <c r="R2">
-        <v>19221.86890411211</v>
+        <v>15757.66114650145</v>
       </c>
       <c r="S2">
-        <v>0.3377606347815572</v>
+        <v>0.1822867710976671</v>
       </c>
       <c r="T2">
-        <v>0.3377606347815572</v>
+        <v>0.1822867710976671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H3">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I3">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J3">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>37.037816</v>
       </c>
       <c r="O3">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="P3">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="Q3">
-        <v>1389.290626353328</v>
+        <v>1114.221561387036</v>
       </c>
       <c r="R3">
-        <v>12503.61563717995</v>
+        <v>10027.99405248332</v>
       </c>
       <c r="S3">
-        <v>0.2197096013788251</v>
+        <v>0.1160052014965206</v>
       </c>
       <c r="T3">
-        <v>0.2197096013788251</v>
+        <v>0.1160052014965206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H4">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I4">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J4">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.00360733333333</v>
+        <v>62.84232966666667</v>
       </c>
       <c r="N4">
-        <v>63.01082199999999</v>
+        <v>188.526989</v>
       </c>
       <c r="O4">
-        <v>0.39793192280085</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="P4">
-        <v>0.3979319228008499</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="Q4">
-        <v>2363.539587847676</v>
+        <v>5671.523289795934</v>
       </c>
       <c r="R4">
-        <v>21271.85629062908</v>
+        <v>51043.7096081634</v>
       </c>
       <c r="S4">
-        <v>0.373782368381875</v>
+        <v>0.5904805873671742</v>
       </c>
       <c r="T4">
-        <v>0.373782368381875</v>
+        <v>0.5904805873671741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H5">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I5">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J5">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4528936666666667</v>
+        <v>0.4347496666666666</v>
       </c>
       <c r="N5">
-        <v>1.358681</v>
+        <v>1.304249</v>
       </c>
       <c r="O5">
-        <v>0.008580471189583621</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="P5">
-        <v>0.008580471189583619</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="Q5">
-        <v>50.964203113498</v>
+        <v>39.23617842956722</v>
       </c>
       <c r="R5">
-        <v>458.677828021482</v>
+        <v>353.125605866105</v>
       </c>
       <c r="S5">
-        <v>0.008059742532091621</v>
+        <v>0.004085005121431444</v>
       </c>
       <c r="T5">
-        <v>0.008059742532091619</v>
+        <v>0.004085005121431443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.566858</v>
       </c>
       <c r="I6">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J6">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.97947133333333</v>
+        <v>19.40000333333333</v>
       </c>
       <c r="N6">
-        <v>56.938414</v>
+        <v>58.20001</v>
       </c>
       <c r="O6">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830937</v>
       </c>
       <c r="P6">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830936</v>
       </c>
       <c r="Q6">
-        <v>98.48357838702354</v>
+        <v>100.6656990298422</v>
       </c>
       <c r="R6">
-        <v>886.3522054832121</v>
+        <v>905.99129126858</v>
       </c>
       <c r="S6">
-        <v>0.01557470218205463</v>
+        <v>0.0104806306971909</v>
       </c>
       <c r="T6">
-        <v>0.01557470218205463</v>
+        <v>0.0104806306971909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.566858</v>
       </c>
       <c r="I7">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J7">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>37.037816</v>
       </c>
       <c r="O7">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="P7">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="Q7">
         <v>64.0624913669031</v>
@@ -883,10 +883,10 @@
         <v>576.562422302128</v>
       </c>
       <c r="S7">
-        <v>0.01013117354610084</v>
+        <v>0.006669752656855359</v>
       </c>
       <c r="T7">
-        <v>0.01013117354610084</v>
+        <v>0.006669752656855358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.566858</v>
       </c>
       <c r="I8">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J8">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.00360733333333</v>
+        <v>62.84232966666667</v>
       </c>
       <c r="N8">
-        <v>63.01082199999999</v>
+        <v>188.526989</v>
       </c>
       <c r="O8">
-        <v>0.39793192280085</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="P8">
-        <v>0.3979319228008499</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="Q8">
-        <v>108.9867242819195</v>
+        <v>326.0858741033958</v>
       </c>
       <c r="R8">
-        <v>980.8805185372759</v>
+        <v>2934.772866930562</v>
       </c>
       <c r="S8">
-        <v>0.01723572396829416</v>
+        <v>0.03394985238254035</v>
       </c>
       <c r="T8">
-        <v>0.01723572396829416</v>
+        <v>0.03394985238254035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>15.566858</v>
       </c>
       <c r="I9">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J9">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4528936666666667</v>
+        <v>0.4347496666666666</v>
       </c>
       <c r="N9">
-        <v>1.358681</v>
+        <v>1.304249</v>
       </c>
       <c r="O9">
-        <v>0.008580471189583621</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="P9">
-        <v>0.008580471189583619</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="Q9">
-        <v>2.350043799366444</v>
+        <v>2.255895442182444</v>
       </c>
       <c r="R9">
-        <v>21.150394194298</v>
+        <v>20.303058979642</v>
       </c>
       <c r="S9">
-        <v>0.0003716480746270202</v>
+        <v>0.0002348685525342786</v>
       </c>
       <c r="T9">
-        <v>0.00037164807462702</v>
+        <v>0.0002348685525342786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H10">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I10">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J10">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.97947133333333</v>
+        <v>19.40000333333333</v>
       </c>
       <c r="N10">
-        <v>56.938414</v>
+        <v>58.20001</v>
       </c>
       <c r="O10">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830937</v>
       </c>
       <c r="P10">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830936</v>
       </c>
       <c r="Q10">
-        <v>35.65382893481933</v>
+        <v>104.38125233492</v>
       </c>
       <c r="R10">
-        <v>320.884460413374</v>
+        <v>939.43127101428</v>
       </c>
       <c r="S10">
-        <v>0.005638480814816743</v>
+        <v>0.0108674689390304</v>
       </c>
       <c r="T10">
-        <v>0.005638480814816741</v>
+        <v>0.01086746893903039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H11">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I11">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J11">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>37.037816</v>
       </c>
       <c r="O11">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="P11">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="Q11">
-        <v>23.19242604445067</v>
+        <v>66.42702669347202</v>
       </c>
       <c r="R11">
-        <v>208.731834400056</v>
+        <v>597.8432402412481</v>
       </c>
       <c r="S11">
-        <v>0.00366777014440045</v>
+        <v>0.006915932058250901</v>
       </c>
       <c r="T11">
-        <v>0.003667770144400449</v>
+        <v>0.006915932058250899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H12">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I12">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J12">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.00360733333333</v>
+        <v>62.84232966666667</v>
       </c>
       <c r="N12">
-        <v>63.01082199999999</v>
+        <v>188.526989</v>
       </c>
       <c r="O12">
-        <v>0.39793192280085</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="P12">
-        <v>0.3979319228008499</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="Q12">
-        <v>39.45626354521133</v>
+        <v>338.1216465555881</v>
       </c>
       <c r="R12">
-        <v>355.1063719069019</v>
+        <v>3043.094819000292</v>
       </c>
       <c r="S12">
-        <v>0.006239817480213495</v>
+        <v>0.03520293548276753</v>
       </c>
       <c r="T12">
-        <v>0.006239817480213492</v>
+        <v>0.03520293548276753</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H13">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I13">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J13">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4528936666666667</v>
+        <v>0.4347496666666666</v>
       </c>
       <c r="N13">
-        <v>1.358681</v>
+        <v>1.304249</v>
       </c>
       <c r="O13">
-        <v>0.008580471189583621</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="P13">
-        <v>0.008580471189583619</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="Q13">
-        <v>0.8507820388356667</v>
+        <v>2.339160147508</v>
       </c>
       <c r="R13">
-        <v>7.657038349521</v>
+        <v>21.052441327572</v>
       </c>
       <c r="S13">
-        <v>0.000134547069610264</v>
+        <v>0.0002435375096372226</v>
       </c>
       <c r="T13">
-        <v>0.0001345470696102639</v>
+        <v>0.0002435375096372226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.202917</v>
+        <v>0.2605293333333333</v>
       </c>
       <c r="H14">
-        <v>0.608751</v>
+        <v>0.7815879999999999</v>
       </c>
       <c r="I14">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="J14">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.97947133333333</v>
+        <v>19.40000333333333</v>
       </c>
       <c r="N14">
-        <v>56.938414</v>
+        <v>58.20001</v>
       </c>
       <c r="O14">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830937</v>
       </c>
       <c r="P14">
-        <v>0.359582875529712</v>
+        <v>0.2041610870830936</v>
       </c>
       <c r="Q14">
-        <v>3.851257384546</v>
+        <v>5.054269935097778</v>
       </c>
       <c r="R14">
-        <v>34.661316460914</v>
+        <v>45.48842941588</v>
       </c>
       <c r="S14">
-        <v>0.0006090577512833957</v>
+        <v>0.0005262163492052183</v>
       </c>
       <c r="T14">
-        <v>0.0006090577512833956</v>
+        <v>0.0005262163492052182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.202917</v>
+        <v>0.2605293333333333</v>
       </c>
       <c r="H15">
-        <v>0.608751</v>
+        <v>0.7815879999999999</v>
       </c>
       <c r="I15">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="J15">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>37.037816</v>
       </c>
       <c r="O15">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="P15">
-        <v>0.2339047304798545</v>
+        <v>0.1299257642351539</v>
       </c>
       <c r="Q15">
-        <v>2.505200836424</v>
+        <v>3.216479170200889</v>
       </c>
       <c r="R15">
-        <v>22.546807527816</v>
+        <v>28.948312531808</v>
       </c>
       <c r="S15">
-        <v>0.000396185410528087</v>
+        <v>0.0003348780235270513</v>
       </c>
       <c r="T15">
-        <v>0.0003961854105280869</v>
+        <v>0.0003348780235270512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.202917</v>
+        <v>0.2605293333333333</v>
       </c>
       <c r="H16">
-        <v>0.608751</v>
+        <v>0.7815879999999999</v>
       </c>
       <c r="I16">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="J16">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.00360733333333</v>
+        <v>62.84232966666667</v>
       </c>
       <c r="N16">
-        <v>63.01082199999999</v>
+        <v>188.526989</v>
       </c>
       <c r="O16">
-        <v>0.39793192280085</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="P16">
-        <v>0.3979319228008499</v>
+        <v>0.6613379451093298</v>
       </c>
       <c r="Q16">
-        <v>4.261988989258</v>
+        <v>16.37227025317022</v>
       </c>
       <c r="R16">
-        <v>38.357900903322</v>
+        <v>147.350432278532</v>
       </c>
       <c r="S16">
-        <v>0.0006740129704673249</v>
+        <v>0.001704569876847656</v>
       </c>
       <c r="T16">
-        <v>0.0006740129704673248</v>
+        <v>0.001704569876847656</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2605293333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.7815879999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002577456638399696</v>
+      </c>
+      <c r="J17">
+        <v>0.002577456638399696</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.202917</v>
-      </c>
-      <c r="H17">
-        <v>0.608751</v>
-      </c>
-      <c r="I17">
-        <v>0.001693789645533523</v>
-      </c>
-      <c r="J17">
-        <v>0.001693789645533523</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M17">
-        <v>0.4528936666666667</v>
+        <v>0.4347496666666666</v>
       </c>
       <c r="N17">
-        <v>1.358681</v>
+        <v>1.304249</v>
       </c>
       <c r="O17">
-        <v>0.008580471189583621</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="P17">
-        <v>0.008580471189583619</v>
+        <v>0.004575203572422716</v>
       </c>
       <c r="Q17">
-        <v>0.09189982415900001</v>
+        <v>0.1132650408235556</v>
       </c>
       <c r="R17">
-        <v>0.8270984174310001</v>
+        <v>1.019385367412</v>
       </c>
       <c r="S17">
-        <v>1.453351325471545E-05</v>
+        <v>1.179238881977094E-05</v>
       </c>
       <c r="T17">
-        <v>1.453351325471544E-05</v>
+        <v>1.179238881977093E-05</v>
       </c>
     </row>
   </sheetData>
